--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1022962.361127565</v>
+        <v>-1025601.708445586</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>282.9130652527474</v>
       </c>
       <c r="X2" t="n">
-        <v>257.2403189156676</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>197.3420172021828</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>136.1812963327086</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>116.1244025957403</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>199.9300270440842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>44.58912478144738</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>169.1562617050087</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>352.0975552298088</v>
+        <v>124.1813455033577</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1345,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>212.6180720598446</v>
+        <v>161.2031340931692</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>71.05846343488149</v>
+        <v>172.6684446854161</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>80.07147829118261</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>22.54881804343133</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>103.780257294551</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.65182679923952</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>36.4306205949047</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>167.9698660663627</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>7.069540131684027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576149</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H28" t="n">
-        <v>56.04917322725558</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>97.75513637220288</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652626</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3433,16 +3433,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1525.7614503848</v>
+        <v>795.3007377729978</v>
       </c>
       <c r="C2" t="n">
-        <v>1156.798933444388</v>
+        <v>795.3007377729978</v>
       </c>
       <c r="D2" t="n">
-        <v>1156.798933444388</v>
+        <v>437.0350391662473</v>
       </c>
       <c r="E2" t="n">
-        <v>771.0106808461439</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4364,16 +4364,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1945.505668074011</v>
       </c>
       <c r="X2" t="n">
-        <v>2302.500622424734</v>
+        <v>1572.039909812931</v>
       </c>
       <c r="Y2" t="n">
-        <v>1912.361290448922</v>
+        <v>1181.900577837119</v>
       </c>
     </row>
     <row r="3">
@@ -4401,25 +4401,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>483.0441129489466</v>
       </c>
       <c r="L3" t="n">
-        <v>815.1145481251087</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.0245808582381</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="C4" t="n">
-        <v>325.0883979303312</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D4" t="n">
-        <v>325.0883979303312</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1437.110749163201</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1437.110749163201</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387894</v>
+        <v>1437.110749163201</v>
       </c>
       <c r="W4" t="n">
-        <v>722.0141317562554</v>
+        <v>1147.693579126241</v>
       </c>
       <c r="X4" t="n">
-        <v>494.0245808582381</v>
+        <v>919.7040282282233</v>
       </c>
       <c r="Y4" t="n">
-        <v>494.0245808582381</v>
+        <v>698.9114490846931</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>890.9810522552812</v>
+        <v>1486.93224570035</v>
       </c>
       <c r="C5" t="n">
-        <v>522.0185353148695</v>
+        <v>1117.969728759938</v>
       </c>
       <c r="D5" t="n">
-        <v>522.0185353148695</v>
+        <v>759.7040301531875</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2445.04195204082</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2191.460891305</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>1860.39800396143</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847234</v>
+        <v>1860.39800396143</v>
       </c>
       <c r="X5" t="n">
-        <v>1479.530414586155</v>
+        <v>1486.93224570035</v>
       </c>
       <c r="Y5" t="n">
-        <v>1277.580892319403</v>
+        <v>1486.93224570035</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1590.463386300792</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1922.533821476953</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.2580926322055</v>
+        <v>519.0385070447395</v>
       </c>
       <c r="C7" t="n">
-        <v>352.2580926322055</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D7" t="n">
-        <v>202.1414532198698</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>202.1414532198698</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1465.581209261357</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1465.581209261357</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>1465.581209261357</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671834</v>
+        <v>1210.89672105547</v>
       </c>
       <c r="W7" t="n">
-        <v>580.2476435302228</v>
+        <v>921.4795510185094</v>
       </c>
       <c r="X7" t="n">
-        <v>352.2580926322055</v>
+        <v>921.4795510185094</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.2580926322055</v>
+        <v>700.6869718749792</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.708680670283</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.746163729872</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.480465123121</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E8" t="n">
-        <v>768.692212524877</v>
+        <v>198.893319710031</v>
       </c>
       <c r="F8" t="n">
-        <v>761.7467117756736</v>
+        <v>191.9478189608275</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734405</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,22 +4899,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2153.285934409297</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C10" t="n">
-        <v>2153.285934409297</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D10" t="n">
-        <v>2003.169294996961</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>1855.256201414568</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>1708.366253916658</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>1708.366253916658</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>3133.919937435996</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>2912.153322005523</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>2912.153322005523</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>2657.468833799636</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>2368.051663762675</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>2153.285934409297</v>
+        <v>682.660105752097</v>
       </c>
       <c r="Y10" t="n">
-        <v>2153.285934409297</v>
+        <v>461.8675266085669</v>
       </c>
     </row>
     <row r="11">
@@ -5024,37 +5024,37 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.286319795768</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U13" t="n">
-        <v>2125.286319795768</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589881</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>954.2476448606602</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>785.3114619327533</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D16" t="n">
-        <v>635.1948225204176</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E16" t="n">
-        <v>487.2817289380245</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>340.3917814401141</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.8961096909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>447.928008406947</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>280.731909121827</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2321.683211348583</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2102.081746371523</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1813.006519715721</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1558.322031509834</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1268.904861472874</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5738,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.5811134804959</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>615.644930552589</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="T22" t="n">
-        <v>2027.396014107403</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U22" t="n">
-        <v>1738.320787451601</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V22" t="n">
-        <v>1483.636299245714</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W22" t="n">
-        <v>1194.219129208753</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X22" t="n">
-        <v>966.2295783107356</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y22" t="n">
-        <v>966.2295783107356</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,16 +5993,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6227,46 +6227,46 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6315,16 +6315,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5477693179085</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4311299055728</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5180363231797</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6280888252693</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>150.4319895401492</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6549,19 +6549,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3122.22696873374</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.22696873374</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384024</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7117,19 +7117,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7163,7 +7163,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7266,13 +7266,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7318,10 +7318,10 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7558,19 +7558,19 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7625,16 +7625,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7658,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,19 +7819,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="L3" t="n">
-        <v>224.3355197601774</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>70.03064962107879</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>218.0306716804419</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.3598316838481</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>66.32790346466561</v>
       </c>
       <c r="X2" t="n">
-        <v>112.4907817628015</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>23.40667879502917</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>150.3417020038824</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>146.3469868924081</v>
+        <v>44.7370056418722</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>66.36248435538656</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>142.9753202488375</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>36.5144555516729</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.3744592024051</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>29.94462611521699</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>49.43558426092559</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.1149342575601</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H28" t="n">
-        <v>84.24553961896831</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>69.49168472642495</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-4.334310688136611e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-5.044853423896711e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26323,37 +26323,37 @@
         <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="G2" t="n">
         <v>201786.6499225016</v>
       </c>
-      <c r="G2" t="n">
-        <v>201786.6499225015</v>
-      </c>
       <c r="H2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="I2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660709</v>
       </c>
       <c r="O2" t="n">
+        <v>205260.4424660708</v>
+      </c>
+      <c r="P2" t="n">
         <v>205260.4424660709</v>
-      </c>
-      <c r="P2" t="n">
-        <v>205260.4424660708</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67721.68800182246</v>
+        <v>67721.68800182258</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53312.72503984554</v>
+        <v>53312.72503984558</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309559</v>
@@ -26430,31 +26430,31 @@
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744335</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744302</v>
+        <v>8727.256391744293</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744304</v>
+        <v>8727.256391744337</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483774</v>
       </c>
       <c r="M4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483774</v>
       </c>
       <c r="N4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483776</v>
       </c>
       <c r="P4" t="n">
         <v>16718.11565483775</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1091750.140161288</v>
+        <v>-1092110.223177006</v>
       </c>
       <c r="C6" t="n">
-        <v>-23199.46695075676</v>
+        <v>-23199.46695075701</v>
       </c>
       <c r="D6" t="n">
-        <v>-183214.929698756</v>
+        <v>-183214.9296987561</v>
       </c>
       <c r="E6" t="n">
-        <v>-233475.5981005051</v>
+        <v>-233510.3360259407</v>
       </c>
       <c r="F6" t="n">
-        <v>91936.86370685017</v>
+        <v>91902.12578141445</v>
       </c>
       <c r="G6" t="n">
-        <v>91936.8637068501</v>
+        <v>91902.12578141445</v>
       </c>
       <c r="H6" t="n">
-        <v>91936.86370685014</v>
+        <v>91902.12578141451</v>
       </c>
       <c r="I6" t="n">
-        <v>91936.86370685011</v>
+        <v>91902.12578141448</v>
       </c>
       <c r="J6" t="n">
-        <v>-75668.31410313242</v>
+        <v>-75703.05202856801</v>
       </c>
       <c r="K6" t="n">
-        <v>91936.86370685026</v>
+        <v>91902.12578141445</v>
       </c>
       <c r="L6" t="n">
-        <v>17656.52295549546</v>
+        <v>17656.52295549553</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1830218059185</v>
+        <v>323.1830218062242</v>
       </c>
       <c r="N6" t="n">
-        <v>85378.21095731773</v>
+        <v>85378.21095731776</v>
       </c>
       <c r="O6" t="n">
-        <v>85378.21095731773</v>
+        <v>85378.21095731767</v>
       </c>
       <c r="P6" t="n">
-        <v>85378.2109573177</v>
+        <v>85378.21095731758</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>188.8453740612696</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>79.09238371494625</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>90.53378238449349</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>186.3079116119694</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>100.8319232414839</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>25.5061986567288</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>58.8241704236446</v>
+        <v>286.7403801500958</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>13.0915833291925</v>
+        <v>64.50652129586797</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>543.0832917018711</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32312,28 +32312,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>622.4211036182646</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,28 +32789,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>508.8976500257891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>567.7870775946151</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33737,28 +33737,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,10 +34211,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>373.1786946453892</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0158803980277</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35024,16 +35024,16 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>319.710178744611</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875408</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>483.8667238383904</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>366.7636161037707</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>425.1908331501707</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37385,28 +37385,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,22 +38178,22 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
